--- a/biology/Botanique/Psidium/Psidium.xlsx
+++ b/biology/Botanique/Psidium/Psidium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psidium est un genre d'arbres et arbustes de la famille des Myrtaceae, natifs des parties les plus chaudes du continent américain (de l'Amérique du Sud au sud des États-Unis). 
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Psidium acranthum Urb., (1922)
 Psidium acunae Borhidi, (1972)
@@ -529,7 +543,7 @@
 Psidium brownianum Mart. ex DC., (1828)
 Psidium calyptranthoides Alain
 Psidium canum Mattos, (1989)
-Psidium cattleianum Sabine ou P. littorale Raddi[1] - Goyavier de Chine ou Goyavier-fraise, dont le fruit est communément appelé goyavier à la Réunion
+Psidium cattleianum Sabine ou P. littorale Raddi - Goyavier de Chine ou Goyavier-fraise, dont le fruit est communément appelé goyavier à la Réunion
 Psidium cauliflorum Landrum &amp; Sobral, (2006)
 Psidium celastroides Urb., (1928)
 Psidium claraense Urb., (1928)
@@ -561,7 +575,7 @@
 Psidium itanareense O.Berg in C.F.P.von Martius &amp; auct. suc. (eds.), (1857)
 Psidium longipes (Berg) McVaugh
 Psidium montanum Sw.
-Psidium salutare (Kunth) O.Berg[2]
+Psidium salutare (Kunth) O.Berg
 Psidium sartorianum
 Psidium sintenisii (Kiaersk.) Alain</t>
         </is>
